--- a/Pb_policy_iteration/cart_pole_modified_env/modified_algo_analysis/mod_vs_original_algo_experiments/experiments/eval_results/original_experiment_results_para_config_2.xlsx
+++ b/Pb_policy_iteration/cart_pole_modified_env/modified_algo_analysis/mod_vs_original_algo_experiments/experiments/eval_results/original_experiment_results_para_config_2.xlsx
@@ -37,373 +37,373 @@
     <t>SR</t>
   </si>
   <si>
-    <t>[7791, 27317, 61686, 75532, 90125, 102345, 117074, 128659, 144414, 156537]</t>
-  </si>
-  <si>
-    <t>[7809, 34207, 61144, 75793, 87159, 99865, 112759, 126178, 137846, 150970]</t>
-  </si>
-  <si>
-    <t>[7861, 29116, 71016, 91524, 114760, 129732, 141514, 157200, 168123, 185943]</t>
-  </si>
-  <si>
-    <t>[8020, 25339, 61770, 77286, 89161, 102708, 114647, 128958, 140991, 154738]</t>
-  </si>
-  <si>
-    <t>[7900, 33586, 51425, 64109, 75003, 90735, 102551, 116652, 127874, 144295]</t>
-  </si>
-  <si>
-    <t>[7871, 32006, 53611, 66613, 79909, 92748, 106964, 118275, 133181, 147172]</t>
-  </si>
-  <si>
-    <t>[7859, 35404, 70954, 85670, 97273, 111231, 122649, 136280, 148079, 174460]</t>
-  </si>
-  <si>
-    <t>[7914, 37098, 49288, 63123, 73753, 89175, 100956, 118810, 131897, 145720]</t>
-  </si>
-  <si>
-    <t>[7824, 35675, 53455, 65879, 77291, 90742, 103364, 117578, 128983, 143001]</t>
-  </si>
-  <si>
-    <t>[7667, 39512, 60447, 73900, 85592, 97977, 109569, 122073, 134667, 149065]</t>
-  </si>
-  <si>
-    <t>[7867, 39235, 55608, 68370, 81626, 92967, 107259, 118798, 133520, 144852]</t>
-  </si>
-  <si>
-    <t>[7763, 28531, 51596, 64928, 76572, 90007, 101430, 115273, 127454, 140504]</t>
-  </si>
-  <si>
-    <t>[7927, 36478, 54435, 84950, 100879, 113211, 127062, 138608, 152220, 163674]</t>
-  </si>
-  <si>
-    <t>[7774, 119707, 134891, 147340, 158719, 173981, 185585, 198624, 209306, 223461]</t>
-  </si>
-  <si>
-    <t>[7880, 29449, 51576, 65725, 76530, 92689, 105624, 120576, 133394, 147269]</t>
-  </si>
-  <si>
-    <t>[7866, 29207, 60940, 75941, 87853, 100814, 114318, 128122, 139477, 154897]</t>
-  </si>
-  <si>
-    <t>[7856, 25942, 61232, 82087, 94247, 107080, 120295, 133797, 145263, 157736]</t>
-  </si>
-  <si>
-    <t>[7709, 29166, 52556, 65902, 77281, 89927, 105529, 118009, 130384, 146198]</t>
-  </si>
-  <si>
-    <t>[8037, 33243, 51381, 63327, 74701, 91128, 103313, 116420, 127465, 143169]</t>
-  </si>
-  <si>
-    <t>[7903, 34128, 51903, 66786, 78409, 91944, 102430, 116975, 130694, 142727]</t>
-  </si>
-  <si>
-    <t>[7870, 29887, 50525, 64575, 76048, 88522, 101626, 114602, 125163, 140952]</t>
-  </si>
-  <si>
-    <t>[7954, 31280, 48503, 62145, 75350, 88926, 100453, 113697, 126312, 141683]</t>
-  </si>
-  <si>
-    <t>[7880, 36059, 71460, 85988, 97498, 110908, 122448, 138404, 151837, 165151]</t>
-  </si>
-  <si>
-    <t>[7869, 24690, 107724, 124927, 145065, 156471, 169597, 183453, 195974, 209069]</t>
-  </si>
-  <si>
-    <t>[7912, 33229, 52973, 68095, 81182, 94268, 106041, 119901, 132720, 169868]</t>
-  </si>
-  <si>
-    <t>[7914, 31257, 55004, 72182, 87243, 102323, 116854, 126976, 141253, 156305]</t>
-  </si>
-  <si>
-    <t>[7734, 33480, 51687, 70123, 85510, 97793, 110688, 122938, 135523, 148316]</t>
-  </si>
-  <si>
-    <t>[7827, 26873, 50419, 64612, 76314, 88242, 99040, 117770, 129593, 142750]</t>
-  </si>
-  <si>
-    <t>[7740, 31565, 44121, 56936, 69458, 83137, 94210, 110731, 123704, 136959]</t>
-  </si>
-  <si>
-    <t>[7755, 36353, 53924, 68461, 80916, 96911, 113094, 126759, 138371, 151780]</t>
-  </si>
-  <si>
-    <t>[15674, 68197, 130521, 170753, 194836, 222073, 243721, 278580, 303731, 332477]</t>
-  </si>
-  <si>
-    <t>[15716, 69630, 183670, 213940, 241080, 263756, 294086, 317473, 344948, 369249]</t>
-  </si>
-  <si>
-    <t>[15726, 57099, 287699, 324181, 348428, 371105, 397705, 418590, 449781, 473892]</t>
-  </si>
-  <si>
-    <t>[15634, 104372, 141021, 167601, 188661, 217114, 244298, 270429, 292406, 323090]</t>
-  </si>
-  <si>
-    <t>[15719, 51533, 86224, 111596, 139444, 161686, 187973, 209289, 238604, 264503]</t>
-  </si>
-  <si>
-    <t>[15786, 63280, 131347, 179905, 226569, 257437, 282364, 309968, 363918, 395787]</t>
-  </si>
-  <si>
-    <t>[15700, 70666, 126087, 169582, 197474, 220090, 250203, 273801, 302364, 327098]</t>
-  </si>
-  <si>
-    <t>[15720, 57107, 87192, 110343, 137343, 159037, 191324, 215207, 243670, 267530]</t>
-  </si>
-  <si>
-    <t>[15818, 56860, 110481, 144400, 169261, 197540, 220055, 248975, 272647, 301979]</t>
-  </si>
-  <si>
-    <t>[15684, 67715, 102551, 127528, 150270, 184775, 207992, 236458, 258543, 289865]</t>
-  </si>
-  <si>
-    <t>[15697, 69338, 140937, 176079, 198971, 227086, 249529, 278338, 306224, 335887]</t>
-  </si>
-  <si>
-    <t>[15432, 56943, 118471, 179429, 245126, 281918, 380615, 408790, 487823, 522123]</t>
-  </si>
-  <si>
-    <t>[15718, 67722, 167702, 202602, 228587, 251264, 282924, 308466, 336822, 360289]</t>
-  </si>
-  <si>
-    <t>[15803, 82313, 117364, 143374, 171309, 202842, 226124, 252252, 274026, 307648]</t>
-  </si>
-  <si>
-    <t>[15825, 67278, 123192, 153052, 174890, 203569, 231399, 257875, 281144, 309216]</t>
-  </si>
-  <si>
-    <t>[15847, 51485, 91685, 122594, 146061, 173329, 196779, 223236, 245287, 272867]</t>
-  </si>
-  <si>
-    <t>[15833, 59932, 94131, 119763, 145679, 168245, 196147, 219863, 247893, 273908]</t>
-  </si>
-  <si>
-    <t>[15629, 57949, 106096, 154845, 180590, 202430, 228898, 251251, 280925, 304312]</t>
-  </si>
-  <si>
-    <t>[15633, 70852, 96739, 123941, 147927, 174759, 198635, 225536, 252241, 278393]</t>
-  </si>
-  <si>
-    <t>[15786, 70966, 112535, 142918, 171497, 193573, 232491, 271689, 298212, 320724]</t>
-  </si>
-  <si>
-    <t>[15725, 57543, 91199, 121003, 144557, 172859, 195558, 221984, 250222, 279597]</t>
-  </si>
-  <si>
-    <t>[15766, 57746, 94190, 120152, 142206, 171530, 193544, 223461, 247494, 273645]</t>
-  </si>
-  <si>
-    <t>[15596, 61332, 116993, 160791, 187148, 213829, 235775, 266522, 290386, 315574]</t>
-  </si>
-  <si>
-    <t>[15619, 79705, 115264, 142582, 171087, 193673, 220787, 244546, 280803, 311595]</t>
-  </si>
-  <si>
-    <t>[15957, 57508, 86595, 118784, 145560, 172797, 194900, 220831, 243844, 274944]</t>
-  </si>
-  <si>
-    <t>[15688, 57545, 111300, 141408, 171956, 196260, 218967, 250030, 273369, 300055]</t>
-  </si>
-  <si>
-    <t>[15792, 67859, 126480, 158676, 185130, 210857, 234955, 264373, 287152, 314371]</t>
-  </si>
-  <si>
-    <t>[15654, 115596, 146433, 173718, 194429, 226700, 250065, 285033, 309254, 338894]</t>
-  </si>
-  <si>
-    <t>[15746, 58808, 100898, 127339, 150484, 181970, 209190, 235424, 260538, 289544]</t>
-  </si>
-  <si>
-    <t>[15627, 64696, 111762, 137127, 162515, 190512, 216164, 242070, 284296, 314647]</t>
-  </si>
-  <si>
-    <t>[39100, 177962, 283355, 347191, 418061, 475528, 542421, 601148, 666660, 729687]</t>
-  </si>
-  <si>
-    <t>[39362, 183472, 393514, 528294, 674813, 831279, 911688, 969070, 1045014, 1104044]</t>
-  </si>
-  <si>
-    <t>[39134, 203628, 355231, 420991, 472913, 553240, 610894, 680142, 740757, 815102]</t>
-  </si>
-  <si>
-    <t>[39215, 176557, 319249, 422498, 482742, 551337, 611413, 680527, 737673, 807657]</t>
-  </si>
-  <si>
-    <t>[39139, 180976, 350678, 428838, 488568, 560119, 617277, 687507, 746491, 809486]</t>
-  </si>
-  <si>
-    <t>[39358, 182287, 305933, 374861, 431864, 513201, 573412, 635145, 696438, 775273]</t>
-  </si>
-  <si>
-    <t>[39170, 187638, 350034, 430652, 486411, 567386, 629628, 699056, 756837, 825887]</t>
-  </si>
-  <si>
-    <t>[39005, 211790, 336813, 414804, 473212, 537086, 596396, 672409, 732724, 801215]</t>
-  </si>
-  <si>
-    <t>[39256, 175598, 371142, 469829, 529395, 597682, 656535, 724302, 783829, 851212]</t>
-  </si>
-  <si>
-    <t>[39240, 231209, 415487, 529642, 696767, 768341, 823757, 899910, 959218, 1026909]</t>
-  </si>
-  <si>
-    <t>[39341, 189484, 321403, 384930, 442971, 521307, 578702, 651364, 710495, 776388]</t>
-  </si>
-  <si>
-    <t>[39154, 153360, 434593, 559977, 620031, 686666, 741171, 820288, 876208, 950297]</t>
-  </si>
-  <si>
-    <t>[39357, 162574, 302338, 389166, 453895, 507349, 581341, 640449, 712964, 770845]</t>
-  </si>
-  <si>
-    <t>[39213, 145913, 301773, 366315, 422116, 498493, 555684, 622339, 680403, 750694]</t>
-  </si>
-  <si>
-    <t>[39418, 198805, 297542, 361493, 416602, 494793, 554249, 625767, 684923, 758940]</t>
-  </si>
-  <si>
-    <t>[39254, 138643, 308904, 435562, 502098, 555757, 627476, 685532, 752514, 809189]</t>
-  </si>
-  <si>
-    <t>[39403, 172935, 268223, 329898, 394036, 452447, 517912, 588428, 652579, 711594]</t>
-  </si>
-  <si>
-    <t>[39106, 200035, 690098, 804270, 871639, 924386, 1003658, 1062146, 1127131, 1186846]</t>
-  </si>
-  <si>
-    <t>[39425, 340858, 417909, 485321, 544323, 635401, 707073, 769732, 827717, 893814]</t>
-  </si>
-  <si>
-    <t>[39536, 171280, 350853, 472357, 533727, 599548, 659205, 734330, 793068, 861600]</t>
-  </si>
-  <si>
-    <t>[39164, 152131, 554235, 637132, 698789, 777853, 837727, 914896, 968927, 1042398]</t>
-  </si>
-  <si>
-    <t>[39291, 175338, 262882, 330879, 386473, 466394, 525640, 599381, 658133, 737353]</t>
-  </si>
-  <si>
-    <t>[39283, 229321, 333785, 411138, 469592, 542169, 601614, 668546, 724786, 802154]</t>
-  </si>
-  <si>
-    <t>[39363, 164277, 346388, 496645, 561167, 630648, 691115, 760013, 815424, 890333]</t>
-  </si>
-  <si>
-    <t>[39077, 184784, 488042, 572529, 640775, 703577, 762419, 832789, 890967, 960445]</t>
-  </si>
-  <si>
-    <t>[39303, 156435, 401214, 497344, 557273, 624989, 682312, 746169, 800626, 887649]</t>
-  </si>
-  <si>
-    <t>[39152, 183783, 342008, 512590, 586984, 643173, 724414, 783218, 850289, 904797]</t>
-  </si>
-  <si>
-    <t>[39344, 176314, 297892, 373172, 428227, 505811, 579884, 647631, 700828, 775012]</t>
-  </si>
-  <si>
-    <t>[39090, 153193, 256511, 322131, 376714, 456056, 514034, 587398, 645242, 715847]</t>
-  </si>
-  <si>
-    <t>[39322, 156304, 281119, 356727, 411695, 491829, 550391, 616958, 676774, 744988]</t>
-  </si>
-  <si>
-    <t>[78570, 376790, 1042942, 1201488, 1323277, 1458445, 1576168, 1728044, 1844876, 2021210]</t>
-  </si>
-  <si>
-    <t>[78475, 338706]</t>
-  </si>
-  <si>
-    <t>[78341, 372980, 597355, 726102, 832171, 983484, 1101670, 1235942, 1343599, 1523973]</t>
-  </si>
-  <si>
-    <t>[78496, 398104, 953639, 1240690, 1370832, 1516103, 1630085, 1779748, 1897198, 2044505]</t>
-  </si>
-  <si>
-    <t>[78661, 315854, 740141]</t>
-  </si>
-  <si>
-    <t>[78007, 374233, 635916, 924713, 1071361, 1182997, 1327166, 1446293, 1586326, 1705593]</t>
-  </si>
-  <si>
-    <t>[78260, 341290, 713002, 851367, 985446, 1108673, 1260002, 1378741, 1514755, 1624144]</t>
-  </si>
-  <si>
-    <t>[78113, 368224, 567433, 696123, 811203, 950528, 1072956, 1211222, 1325490, 1449357]</t>
-  </si>
-  <si>
-    <t>[78195, 365414, 677737, 822341, 938303, 1077991, 1198045, 1334377, 1457314, 1626856]</t>
-  </si>
-  <si>
-    <t>[78314, 330244, 1008416, 1185107, 1306840, 1445739, 1563059, 1698406, 1802609, 1947846]</t>
-  </si>
-  <si>
-    <t>[78485, 365980, 990118, 1150216, 1267838, 1407049, 1526885, 1666247, 1784654, 1918612]</t>
-  </si>
-  <si>
-    <t>[78523, 365877, 666647, 853754, 977119, 1114516, 1231900, 1375264, 1493250, 1637025]</t>
-  </si>
-  <si>
-    <t>[78369, 412949, 940383, 1106046, 1226815, 1373685, 1494219, 1627415, 1739319, 1881867]</t>
-  </si>
-  <si>
-    <t>[78432, 390833, 577117, 719917, 833602, 962129, 1071349, 1235430, 1356541, 1500875]</t>
-  </si>
-  <si>
-    <t>[78569, 551044, 718224, 854234, 969603, 1101267, 1218696, 1362858, 1482356, 1619382]</t>
-  </si>
-  <si>
-    <t>[78089, 373204, 997624, 1161626, 1277657, 1428809, 1544135, 1693082, 1809351, 1946637]</t>
-  </si>
-  <si>
-    <t>[78231, 405272, 754162, 906815, 1024292, 1168311, 1290997, 1423963, 1530559, 1684566]</t>
-  </si>
-  <si>
-    <t>[77998, 399905, 613093, 733144, 879429, 998136, 1150892, 1267163, 1416120, 1531990]</t>
-  </si>
-  <si>
-    <t>[78198, 282095, 808479, 1098773, 1256702, 1370690, 1514971, 1636993, 1778197, 1898170]</t>
-  </si>
-  <si>
-    <t>[78349, 345112, 663417, 830764, 954642, 1096130, 1210026, 1355236, 1474681, 1609231]</t>
-  </si>
-  <si>
-    <t>[78342, 376987, 750423, 937654, 1056125, 1191162, 1316734, 1461313, 1601365, 1746413]</t>
-  </si>
-  <si>
-    <t>[78393, 423868, 778160, 922472, 1035390, 1182835, 1304117, 1438548, 1550399, 1739198]</t>
-  </si>
-  <si>
-    <t>[78444, 345594, 616305, 995260, 1217616, 1347983, 1490993, 1605751, 1760472, 1880451]</t>
-  </si>
-  <si>
-    <t>[78517, 407738, 715903, 879363, 987578, 1150314, 1262034, 1415122, 1533398, 1676423]</t>
-  </si>
-  <si>
-    <t>[78473, 363473, 680845, 835035, 948254, 1100660, 1218709, 1362017, 1480256, 1618299]</t>
-  </si>
-  <si>
-    <t>[78351, 430594, 600386, 737352, 842985, 1011044, 1129896, 1269197, 1382156, 1532885]</t>
-  </si>
-  <si>
-    <t>[78174, 420178, 773489, 949096, 1083456, 1194878, 1341624, 1461966, 1589249, 1697269]</t>
-  </si>
-  <si>
-    <t>[78323, 299576, 684458, 912551, 1076474, 1210796, 1317782, 1471819, 1588532, 1727189]</t>
-  </si>
-  <si>
-    <t>[78424, 317991, 795294, 1466574, 1607545, 1743851, 1853980, 1994218, 2116102, 2249789]</t>
-  </si>
-  <si>
-    <t>[78374, 327831, 577374, 704018, 823647, 959348, 1086903, 1229779, 1347984, 1498176]</t>
+    <t>[7631, 44593, 163556, 176884, 213198, 295667, 413671, 429190, 444232, 459469]</t>
+  </si>
+  <si>
+    <t>[7649, 39410, 65048, 88934, 106303, 126848, 140549, 156561, 170427, 196336]</t>
+  </si>
+  <si>
+    <t>[7637, 41002, 63462, 103978, 122850, 139338, 155577, 173603, 191391, 251405]</t>
+  </si>
+  <si>
+    <t>[7681, 37709, 137816, 156110, 174955, 306159, 320708, 334647, 350985, 364271]</t>
+  </si>
+  <si>
+    <t>[7694, 57130, 106170, 122066, 135538, 151505, 181595, 205330, 326181, 341314]</t>
+  </si>
+  <si>
+    <t>[7635, 31201, 55603, 70035, 83381, 99224, 112800, 153499, 176150, 232400]</t>
+  </si>
+  <si>
+    <t>[7594, 44028, 152852, 234402, 265867, 293377, 309802, 326507, 341923, 417776]</t>
+  </si>
+  <si>
+    <t>[7593, 57333, 103579, 116792, 175228, 200241, 220730, 245872, 285191, 343056]</t>
+  </si>
+  <si>
+    <t>[7687, 32255, 49124, 133991, 161943, 178169, 193926, 208683, 222180, 236415]</t>
+  </si>
+  <si>
+    <t>[7521, 37708, 79787, 102324, 116582, 131664, 146503, 207114, 226922, 240510]</t>
+  </si>
+  <si>
+    <t>[7748, 47462, 67719, 110159, 184882, 294868, 307403, 322548, 336190, 448927]</t>
+  </si>
+  <si>
+    <t>[7663, 90159, 176615, 200425, 216453, 234813, 249085, 279895, 376984, 437537]</t>
+  </si>
+  <si>
+    <t>[7647, 50698, 178741, 191829, 210956, 227247, 257172, 285562, 349940, 384048]</t>
+  </si>
+  <si>
+    <t>[7631, 47133, 165547, 179445, 226033, 257823, 272349, 289766, 302158, 346142]</t>
+  </si>
+  <si>
+    <t>[7621, 32967, 94160, 127864, 142359, 235598, 290412, 352599, 416774, 520361]</t>
+  </si>
+  <si>
+    <t>[7731, 88627, 162409, 176737, 238711, 277368, 370180, 386705, 410275, 534743]</t>
+  </si>
+  <si>
+    <t>[7629, 35845, 55410, 70595, 134983, 187020, 277089, 329989, 347566, 363053]</t>
+  </si>
+  <si>
+    <t>[7698, 32258, 56821, 77550, 125231, 141448, 156998, 175348, 195488, 209524]</t>
+  </si>
+  <si>
+    <t>[7562, 31465, 45861, 59712, 74968, 89406, 101768, 116515, 131022, 149141]</t>
+  </si>
+  <si>
+    <t>[7650, 28082, 113120, 127997, 210787, 230268, 246214, 337038, 398696, 433584]</t>
+  </si>
+  <si>
+    <t>[7746, 26703, 52977, 82347, 141219, 156277, 174606, 189522, 215179, 280842]</t>
+  </si>
+  <si>
+    <t>[7642, 34212, 159394, 169492, 198030, 230991, 267745, 315254, 344339, 361134]</t>
+  </si>
+  <si>
+    <t>[7637, 186686, 207643, 229217, 245304, 268051, 340926, 364131, 425261, 499313]</t>
+  </si>
+  <si>
+    <t>[7580, 61867, 81287, 150107, 275570, 289680, 302284, 317260, 337010, 385171]</t>
+  </si>
+  <si>
+    <t>[7664, 138352, 179920, 204904, 234124, 267313, 284732, 324828, 342267, 380724]</t>
+  </si>
+  <si>
+    <t>[7670, 28231, 63143, 129932, 239703, 254482, 282595, 294975, 310695, 362105]</t>
+  </si>
+  <si>
+    <t>[7593, 53155, 80049, 97087, 119518, 133427, 173681, 184825, 199093, 212084]</t>
+  </si>
+  <si>
+    <t>[7633, 35362, 49933, 63844, 106164, 155185, 171279, 196548, 257752, 366286]</t>
+  </si>
+  <si>
+    <t>[7582, 186462, 200843, 252065, 321737, 433538, 446730, 464616, 533613, 562784]</t>
+  </si>
+  <si>
+    <t>[7575, 99747, 135555, 148292, 164869, 178305, 237627, 259559, 281894, 296844]</t>
+  </si>
+  <si>
+    <t>[15361, 117723, 274774, 385409, 433518, 463083, 500650, 530800, 676760, 744026]</t>
+  </si>
+  <si>
+    <t>[15313, 71750, 100685, 185784, 381328, 413414, 442193, 473231, 508271, 535673]</t>
+  </si>
+  <si>
+    <t>[15235, 78040, 109642, 148427, 177554, 221115, 252435, 289010, 316640, 343995]</t>
+  </si>
+  <si>
+    <t>[15305, 95512, 333204, 378931, 1064791, 1104505, 1202294, 1246334, 1276647, 1338081]</t>
+  </si>
+  <si>
+    <t>[15424, 154737, 282385, 367665, 418701, 456499, 590102, 625447, 656301, 683012]</t>
+  </si>
+  <si>
+    <t>[15376, 164879, 417582, 447205, 473621, 537835, 563908, 589595, 620534, 647454]</t>
+  </si>
+  <si>
+    <t>[15342, 77390, 105604, 143525, 175482, 201594, 244528, 273952, 311305, 342027]</t>
+  </si>
+  <si>
+    <t>[15249, 83102, 113147, 173258, 216923, 270053, 347078, 488269, 550607, 701902]</t>
+  </si>
+  <si>
+    <t>[15146, 105922, 301004, 331106, 356581, 492783, 575228, 631068, 819173, 864698]</t>
+  </si>
+  <si>
+    <t>[15319, 76570, 246915, 514464, 542046, 575945, 604569, 635850, 703568, 758685]</t>
+  </si>
+  <si>
+    <t>[15335, 84881, 133381, 173760, 208500, 242268, 284182, 537850, 566902, 621577]</t>
+  </si>
+  <si>
+    <t>[15474, 140495, 268534, 326661, 354061, 548399, 579851, 609358, 714630, 777828]</t>
+  </si>
+  <si>
+    <t>[15279, 112690, 268494, 502287, 547383, 577680, 633682, 669295, 954163, 980342]</t>
+  </si>
+  <si>
+    <t>[15188, 119523, 161718, 196963, 466018, 495200, 521668, 551463, 579885, 608505]</t>
+  </si>
+  <si>
+    <t>[15208, 116093, 254420, 286655, 316948, 371696, 572775, 599735, 633836, 786419]</t>
+  </si>
+  <si>
+    <t>[15241, 81260, 114968, 163743, 231642, 482723, 533236, 1141196, 1172273, 1201907]</t>
+  </si>
+  <si>
+    <t>[15217, 128481, 261416, 563036, 662799, 724523, 866608, 1107771, 1140107, 1194973]</t>
+  </si>
+  <si>
+    <t>[15419, 73961, 174624, 261297, 471227, 542244, 578023, 735049, 899236, 930008]</t>
+  </si>
+  <si>
+    <t>[15345, 116395, 153346, 185170, 346774, 376599, 413733, 445520, 484912, 595151]</t>
+  </si>
+  <si>
+    <t>[15255, 80104, 128975, 275570, 306913, 342551, 516985, 552633, 593331, 623149]</t>
+  </si>
+  <si>
+    <t>[15225, 79377, 243079, 290530, 338224, 516455, 561547, 805701, 833367, 888387]</t>
+  </si>
+  <si>
+    <t>[15215, 91329, 278803, 421679, 463546, 530132, 576780, 834724, 862797, 915886]</t>
+  </si>
+  <si>
+    <t>[15311, 64083, 112675, 145393, 193808, 222172, 274783, 383062, 613496, 642316]</t>
+  </si>
+  <si>
+    <t>[15267, 102880, 224652, 261267, 288783, 316885, 348319, 377302, 407636, 545021]</t>
+  </si>
+  <si>
+    <t>[15318, 89869, 121911, 158925, 234464, 267800, 302868, 329451, 362164, 387375]</t>
+  </si>
+  <si>
+    <t>[15142, 152713, 291173, 325072, 354830, 393184, 426274, 462767, 490166, 516701]</t>
+  </si>
+  <si>
+    <t>[15440, 95835, 221698, 285561, 317042, 344421, 372225, 398121, 425127, 453173]</t>
+  </si>
+  <si>
+    <t>[15234, 65416, 233155, 422067, 485821, 746697, 771943, 805207, 875320, 1078152]</t>
+  </si>
+  <si>
+    <t>[15276, 118029, 154479, 183694, 210454, 242235, 268631, 298338, 342881, 488050]</t>
+  </si>
+  <si>
+    <t>[15278, 73275, 194486, 411571, 531063, 591516, 618229, 645000, 675274, 704782]</t>
+  </si>
+  <si>
+    <t>[38339, 166177, 261040, 327893, 404408, 470267, 560064, 644206, 1301867, 1384611]</t>
+  </si>
+  <si>
+    <t>[38493, 175904, 256607, 328974, 401160, 493800, 566696, 635371, 715399, 781000]</t>
+  </si>
+  <si>
+    <t>[38257, 207301, 411497, 480683, 681701, 983679, 1215009, 1847060, 1915854, 2585156]</t>
+  </si>
+  <si>
+    <t>[38420, 182633, 255045, 324033, 425886, 493486, 554787, 650541, 722585, 845312]</t>
+  </si>
+  <si>
+    <t>[38072, 235046, 312269, 384514, 486996, 549572, 1134335, 1995946, 2068559, 2143699]</t>
+  </si>
+  <si>
+    <t>[38211, 169118, 250897, 324620, 406438, 473733, 564413, 716881, 788934, 955654]</t>
+  </si>
+  <si>
+    <t>[38220, 215285, 291216, 360213, 467985, 540361, 631259, 705163, 990557, 1423660]</t>
+  </si>
+  <si>
+    <t>[38311, 199770, 271157, 352936, 487091, 563880, 633189, 703025, 966011, 1341880]</t>
+  </si>
+  <si>
+    <t>[38118, 190114, 261034, 326266, 411317, 485931, 556109, 622036, 716491, 787549]</t>
+  </si>
+  <si>
+    <t>[38145, 193410, 525937, 719656, 816476, 1157353, 1769333, 1945937, 2020508, 2094412]</t>
+  </si>
+  <si>
+    <t>[38215, 236763, 813797, 1014493, 1092573, 1199404, 1589606, 1805735, 1874857, 2022853]</t>
+  </si>
+  <si>
+    <t>[38269, 267702, 641617, 1737290, 1893113, 2015288, 2125161, 2190623, 2337418, 2405884]</t>
+  </si>
+  <si>
+    <t>[38058, 183763, 547212, 1049923, 1143489, 1237307, 1323700, 1395677, 1464593, 1535996]</t>
+  </si>
+  <si>
+    <t>[38214, 171395, 310113, 924016, 1005860, 1094546, 1174683, 1379285, 1466388, 1545011]</t>
+  </si>
+  <si>
+    <t>[38393, 204307, 462133, 808571, 914685, 1907275, 1983769, 2102111, 2199666, 2276683]</t>
+  </si>
+  <si>
+    <t>[38431, 193657, 646416, 744104, 852457, 1494835, 1566697, 1683757, 1817827, 1929025]</t>
+  </si>
+  <si>
+    <t>[38405, 334710, 810406, 916687, 1005456, 1087104, 1157264, 1230714, 1296621, 1379022]</t>
+  </si>
+  <si>
+    <t>[38170, 247758, 636190, 971092, 1328630, 1524244, 1961075, 2075415, 2218345, 2776710]</t>
+  </si>
+  <si>
+    <t>[38138, 196572, 731534, 1575091, 1800443, 2326037, 3246104, 3321064, 3400738, 3472282]</t>
+  </si>
+  <si>
+    <t>[38127, 226056, 877586, 957091, 1045237, 1121189, 1204871, 1287686, 1436213, 1826454]</t>
+  </si>
+  <si>
+    <t>[38350, 208857, 739854, 992428, 1069289, 1141870, 1209524, 1289606, 1353635, 1431561]</t>
+  </si>
+  <si>
+    <t>[38317, 232304, 801157, 891480, 970901, 1057964, 1135682, 1205575, 1276643, 1348292]</t>
+  </si>
+  <si>
+    <t>[38457, 234467, 615164, 805126, 1004269, 1089958, 1745599, 1816479, 1893745, 1967272]</t>
+  </si>
+  <si>
+    <t>[38404, 236878, 592862, 1411433, 1490765, 1914945, 2278287, 2799803, 2877658, 3015633]</t>
+  </si>
+  <si>
+    <t>[38261, 186770, 260346, 341013, 406198, 481282, 561569, 625024, 725487, 791863]</t>
+  </si>
+  <si>
+    <t>[38182, 212612, 679945, 984299, 1087363, 1154894, 1220461, 1306142, 1374202, 1439163]</t>
+  </si>
+  <si>
+    <t>[38129, 267853, 749802, 1379375, 1459066, 1527036, 1599028, 1670887, 1749083, 1827534]</t>
+  </si>
+  <si>
+    <t>[38186, 192152, 487522, 637420, 813077, 921053, 1134926, 1206543, 1299751, 1392067]</t>
+  </si>
+  <si>
+    <t>[38293, 311758, 405613, 747588, 1281171, 1389638, 1525496, 1594585, 1662460, 1749262]</t>
+  </si>
+  <si>
+    <t>[38283, 190957, 423129]</t>
+  </si>
+  <si>
+    <t>[76378, 396069, 1358953, 1490311, 1617182, 2411103, 3945891, 4648015, 6004415, 6204441]</t>
+  </si>
+  <si>
+    <t>[76461, 513074, 1183529, 1365419, 3051954, 3220409, 3368676, 3511098, 3644687, 3791204]</t>
+  </si>
+  <si>
+    <t>[76344, 454272, 1523029, 1784019, 2429840, 2883381, 3402446, 3694915, 3901865, 4057585]</t>
+  </si>
+  <si>
+    <t>[76773, 322484, 487753, 622972, 797861, 964669, 1114499, 1258279, 1413417, 1543778]</t>
+  </si>
+  <si>
+    <t>[76667, 428777, 1210664, 1524371, 2227989, 3653502, 3798036, 3943168, 4080270, 4305033]</t>
+  </si>
+  <si>
+    <t>[76398, 405179, 543693, 680775, 843074, 979652, 1153403, 1289427, 1403427, 1595139]</t>
+  </si>
+  <si>
+    <t>[76608, 425166, 561094, 699388, 862436, 1004213, 1173320, 1450806, 1586387, 1715719]</t>
+  </si>
+  <si>
+    <t>[76308, 400523, 545661, 693524, 843166, 974415, 1128013, 1264070, 1417009, 1558841]</t>
+  </si>
+  <si>
+    <t>[76382, 434712, 644495, 779677, 944387, 1073564, 1229314, 1366941, 1526365, 1695799]</t>
+  </si>
+  <si>
+    <t>[76481, 624502, 904355, 1527437, 2352349, 4177293, 4819750, 7370149, 7903812, 8129132]</t>
+  </si>
+  <si>
+    <t>[76334, 392130, 532198, 662708, 841721, 973865, 1665255, 1901609, 2208658, 2346656]</t>
+  </si>
+  <si>
+    <t>[76578, 395580, 1158785, 2032456, 2201620, 2639203, 2784082, 3135413, 3366999, 3512215]</t>
+  </si>
+  <si>
+    <t>[76548, 393301, 534794, 676768, 831252, 965146, 1147826, 1281901, 1430481, 1559878]</t>
+  </si>
+  <si>
+    <t>[76456, 523702, 1221817, 1409854, 1547049, 1716122, 1879632, 2006633, 2138189, 2297319]</t>
+  </si>
+  <si>
+    <t>[76560, 285393, 439464, 582660, 747037, 897646, 1024436, 1517804, 2407609, 3582483]</t>
+  </si>
+  <si>
+    <t>[76562, 337363, 572260, 961452, 2366224, 2971543, 3141953, 3287676, 3628185, 3812291]</t>
+  </si>
+  <si>
+    <t>[76412, 504482, 1027556, 1232073, 1404974, 1667255, 2909093, 3609451, 4512227, 5120140]</t>
+  </si>
+  <si>
+    <t>[76407, 345670, 517173, 935478, 1813605, 2066923, 2212856, 2386280, 2538414, 2771432]</t>
+  </si>
+  <si>
+    <t>[76682, 402707, 553723, 679576, 835908, 975117, 1126689, 1257359, 1434528, 1915764]</t>
+  </si>
+  <si>
+    <t>[76662, 438551, 630812, 766932, 939179, 1132775, 1352272, 1492162, 1699597, 2271803]</t>
+  </si>
+  <si>
+    <t>[76405, 353018, 509968, 661728, 811169, 945990, 1110738, 1243699, 1462860, 1894832]</t>
+  </si>
+  <si>
+    <t>[76484, 385628, 1163908, 1762192, 3109391, 4090602, 5208064, 5578309, 6746451, 6926679]</t>
+  </si>
+  <si>
+    <t>[76544, 491067, 1467603, 1838193, 1978293, 2126998, 2262360, 2417788, 2569094, 2728878]</t>
+  </si>
+  <si>
+    <t>[76697, 410793, 552304, 685637, 846947, 1407100, 2136242, 2327222, 2489813, 2631110]</t>
+  </si>
+  <si>
+    <t>[76380, 410741, 1217138, 1774510, 2422272]</t>
+  </si>
+  <si>
+    <t>[76352, 346016, 487697, 620680, 783800, 923971, 1082239, 1233002, 1387139, 1519013]</t>
+  </si>
+  <si>
+    <t>[76283, 396991, 634603, 1767082, 1957082, 2174656, 3084869, 3232455, 3399639, 3536812]</t>
+  </si>
+  <si>
+    <t>[76384, 428374, 573593, 769738, 913678, 1041623, 1293894, 1544455, 1691286, 1858444]</t>
+  </si>
+  <si>
+    <t>[76454, 421840, 970752, 1651935, 1905147, 3160403, 4353793, 4573046, 5336532, 5498436]</t>
+  </si>
+  <si>
+    <t>[76394, 342333, 1136463, 1286661, 1419456, 1601445, 1784696, 1919537, 2054411, 2181999]</t>
   </si>
   <si>
     <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
-    <t>[0.0, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.1]</t>
+    <t>[0.0, 0.0, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.25]</t>
   </si>
 </sst>
 </file>
@@ -2857,7 +2857,7 @@
         <v>96</v>
       </c>
       <c r="G91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2903,7 +2903,7 @@
         <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2972,7 +2972,7 @@
         <v>101</v>
       </c>
       <c r="G96" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3432,7 +3432,7 @@
         <v>121</v>
       </c>
       <c r="G116" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:7">
